--- a/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
+++ b/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\web-app\BpTPEU\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BpTPEU" sheetId="2" r:id="rId2"/>
+    <sheet name="BpTPEU-large" sheetId="2" r:id="rId2"/>
+    <sheet name="BpTPEU-small" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>BpTPEU BTU per Total Primary Energy Unit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Source:</t>
   </si>
@@ -32,16 +35,31 @@
     <t>none needed</t>
   </si>
   <si>
-    <t>For Mexico, the unit for Total Primary Energy output is petajoules (PJ).</t>
-  </si>
-  <si>
-    <t>One PJ</t>
+    <t>For the U.S.:</t>
+  </si>
+  <si>
+    <t>large primary energy output unit</t>
+  </si>
+  <si>
+    <t>small primary energy output unit</t>
+  </si>
+  <si>
+    <t>The large primary energy output unit (used in totals graphs) is: quadrillion BTU</t>
+  </si>
+  <si>
+    <t>The small primary energy output unit (used in energy intensity per unit GDP graphs) is: thousand BTU</t>
+  </si>
+  <si>
+    <t>BpTPEU BTU per Large Primary Energy Unit</t>
+  </si>
+  <si>
+    <t>BpTPEU BTU per Small Primary Energy Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,9 +104,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,6 +114,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -146,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,7 +200,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,40 +409,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -436,22 +471,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>6</v>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>947817077749.15002</v>
+        <f>10^15</f>
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <f>10^3</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
